--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeNamePlate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B0D9B-7211-40F7-B872-473A5C3214BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D19809-C91D-4634-8D1C-7FFEC0A591F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>English</t>
   </si>
@@ -117,6 +117,65 @@
     <rPh sb="8" eb="9">
       <t>アオ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developerRed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者の証 - 赤</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターフィールド - 銀河</t>
+    <rPh sb="11" eb="13">
+      <t>ギンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starFieldGalaxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starFieldNebura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターフィールド - 星雲</t>
+    <rPh sb="11" eb="13">
+      <t>セイウン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extremeRolesLogo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extremeSkinsLogo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ - Extreme Roles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ - Extreme Skins</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -448,7 +507,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -535,6 +594,49 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
     </row>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ドキュメント\VisualStudioProject\AmongUs\ExtremeNamePlate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D19809-C91D-4634-8D1C-7FFEC0A591F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A0EA7-8C44-4F59-997E-3B49F496FA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +502,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A0EA7-8C44-4F59-997E-3B49F496FA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895415C2-BFAD-4999-ADF2-F1C9BF9464CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>English</t>
   </si>
@@ -171,6 +171,38 @@
   </si>
   <si>
     <t>ロゴ - Extreme Skins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Niboshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SWND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TJAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UT_Battle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さぁ、バトルだ!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんかの達人っぽいなにか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にぼしとねこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW-Needle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -501,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -632,6 +664,38 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
     </row>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895415C2-BFAD-4999-ADF2-F1C9BF9464CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EAE5C-B7E7-4CBB-B50C-369D2F7AE0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>English</t>
   </si>
@@ -203,6 +203,47 @@
   </si>
   <si>
     <t>SW-Needle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minicrewmate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニクルーメイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ligftdown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫(青)</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gentle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紳士</t>
+    <rPh sb="0" eb="2">
+      <t>シンシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -699,13 +740,45 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975EAE5C-B7E7-4CBB-B50C-369D2F7AE0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07523695-975B-42C8-83CB-D53EE4A3F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>English</t>
   </si>
@@ -244,6 +244,50 @@
     <rPh sb="0" eb="2">
       <t>シンシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UwU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hex_World</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WDamogus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sabori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FastFooSUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファストフード店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さぼり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読めるかな</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -575,7 +619,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -738,45 +782,84 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07523695-975B-42C8-83CB-D53EE4A3F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F695E-18BF-4196-B81A-5A41241E2423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>English</t>
   </si>
@@ -289,6 +289,42 @@
   <si>
     <t>読めるかな</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jre</t>
+  </si>
+  <si>
+    <t>jrh</t>
+  </si>
+  <si>
+    <t>jrk</t>
+  </si>
+  <si>
+    <t>jrs</t>
+  </si>
+  <si>
+    <t>jrt</t>
+  </si>
+  <si>
+    <t>jrw</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>onsen</t>
+  </si>
+  <si>
+    <t>温泉マーク</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>eer</t>
+  </si>
+  <si>
+    <t>JNR</t>
   </si>
 </sst>
 </file>
@@ -616,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -861,14 +897,93 @@
         <v>49</v>
       </c>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F695E-18BF-4196-B81A-5A41241E2423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D664164-F76D-4365-8EEB-2FF479B6E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>English</t>
   </si>
@@ -325,13 +325,28 @@
   </si>
   <si>
     <t>JNR</t>
+  </si>
+  <si>
+    <t>oigawa</t>
+  </si>
+  <si>
+    <t>oer</t>
+  </si>
+  <si>
+    <t>mzm</t>
+  </si>
+  <si>
+    <t>rirekisyo</t>
+  </si>
+  <si>
+    <t>履歴書</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +360,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,16 +386,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{E4540F09-C6AB-4CE6-8A8B-B63840EA1C38}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -985,6 +1013,63 @@
         <v>72</v>
       </c>
     </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D664164-F76D-4365-8EEB-2FF479B6E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5C02D-0175-473B-ADB8-3842A692690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>English</t>
   </si>
@@ -340,6 +340,34 @@
   </si>
   <si>
     <t>履歴書</t>
+  </si>
+  <si>
+    <t>ooigawa</t>
+  </si>
+  <si>
+    <t>ner</t>
+  </si>
+  <si>
+    <t>daitethu</t>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MechanicalBeast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械獣</t>
+    <rPh sb="0" eb="3">
+      <t>キカイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -680,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1070,6 +1098,46 @@
         <v>77</v>
       </c>
     </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5C02D-0175-473B-ADB8-3842A692690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963093F-B6EA-4826-97CA-AF1B6CBC3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>English</t>
   </si>
@@ -368,6 +368,28 @@
       <t>キカイジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyanko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Omochi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pinklwl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lwl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もちもち</t>
+  </si>
+  <si>
+    <t>ねこ</t>
   </si>
 </sst>
 </file>
@@ -708,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -921,220 +943,244 @@
         <v>57</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M47" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="M45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>83</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M53" t="s">
         <v>84</v>
       </c>
     </row>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963093F-B6EA-4826-97CA-AF1B6CBC3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD85CC-7C7B-4AB5-AA46-20419BE49052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>English</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>ねこ</t>
+  </si>
+  <si>
+    <t>ZUNDA</t>
+  </si>
+  <si>
+    <t>ずんだもんアイコン</t>
   </si>
 </sst>
 </file>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1168,19 +1174,38 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>81</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>83</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M54" t="s">
         <v>84</v>
       </c>
     </row>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD85CC-7C7B-4AB5-AA46-20419BE49052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E64E13F-8184-409C-BB05-427A3F227169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>English</t>
   </si>
@@ -396,6 +396,48 @@
   </si>
   <si>
     <t>ずんだもんアイコン</t>
+  </si>
+  <si>
+    <t>CampfireCat</t>
+  </si>
+  <si>
+    <t>キャンプするねこ</t>
+  </si>
+  <si>
+    <t>DoubleCat</t>
+  </si>
+  <si>
+    <t>だぶるねこ</t>
+  </si>
+  <si>
+    <t>GlassCat</t>
+  </si>
+  <si>
+    <t>草の中で寝るねこ</t>
+  </si>
+  <si>
+    <t>MagicCat</t>
+  </si>
+  <si>
+    <t>まほうねこ</t>
+  </si>
+  <si>
+    <t>MetalicCat</t>
+  </si>
+  <si>
+    <t>機械をいじるねこ</t>
+  </si>
+  <si>
+    <t>PastelCat</t>
+  </si>
+  <si>
+    <t>ぱすてるねこ</t>
+  </si>
+  <si>
+    <t>SoupCat</t>
+  </si>
+  <si>
+    <t>ねことスープ</t>
   </si>
 </sst>
 </file>
@@ -736,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:M50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -973,239 +1015,372 @@
         <v>88</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" t="s">
-        <v>43</v>
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" t="s">
-        <v>45</v>
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" t="s">
-        <v>47</v>
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" t="s">
-        <v>49</v>
+      <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M36" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="M39" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>74</v>
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>75</v>
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
-        <v>77</v>
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M48" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
-        <v>92</v>
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="M52" t="s">
-        <v>82</v>
+      <c r="A52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="M54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="M55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>83</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M61" t="s">
         <v>84</v>
       </c>
     </row>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E64E13F-8184-409C-BB05-427A3F227169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC323752-7406-4CB4-ADD2-7BF6B77E6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>English</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>ねことスープ</t>
+  </si>
+  <si>
+    <t>Famibe</t>
+  </si>
+  <si>
+    <t>任意コード</t>
   </si>
 </sst>
 </file>
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1384,6 +1390,25 @@
         <v>84</v>
       </c>
     </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26019"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC323752-7406-4CB4-ADD2-7BF6B77E6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF70FA4-C4C3-4FF6-AF16-D97CFA90A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +18,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>English</t>
   </si>
@@ -77,24 +81,24 @@
     <t>Irish</t>
   </si>
   <si>
+    <t>innerslothNamePlate</t>
+  </si>
+  <si>
+    <t>Innersloth Nameplate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Innersloth公式作</t>
   </si>
   <si>
-    <t>Innersloth Nameplate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>innerslothNamePlate</t>
+    <t>yukieiji</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>yukieiji作</t>
     <rPh sb="8" eb="9">
       <t>サク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yukieiji</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -132,6 +136,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>starFieldGalaxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>スターフィールド - 銀河</t>
     <rPh sb="11" eb="13">
       <t>ギンガ</t>
@@ -139,10 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>starFieldGalaxy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>starFieldNebura</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -158,18 +162,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ - Extreme Roles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>extremeSkinsLogo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロゴ - Extreme Roles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロゴ - Extreme Skins</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,14 +182,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>にぼしとねこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SWND</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SW-Needle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>TJAP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>なんかの達人っぽいなにか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>UT_Battle</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -194,16 +210,130 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なんかの達人っぽいなにか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にぼしとねこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW-Needle</t>
-    <phoneticPr fontId="1"/>
+    <t>UwU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hex_World</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WDamogus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読めるかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sabori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さぼり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FastFooSUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファストフード店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nyanko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねこ</t>
+  </si>
+  <si>
+    <t>Omochi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もちもち</t>
+  </si>
+  <si>
+    <t>Pinklwl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lwl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CampfireCat</t>
+  </si>
+  <si>
+    <t>キャンプするねこ</t>
+  </si>
+  <si>
+    <t>DoubleCat</t>
+  </si>
+  <si>
+    <t>だぶるねこ</t>
+  </si>
+  <si>
+    <t>GlassCat</t>
+  </si>
+  <si>
+    <t>草の中で寝るねこ</t>
+  </si>
+  <si>
+    <t>MagicCat</t>
+  </si>
+  <si>
+    <t>まほうねこ</t>
+  </si>
+  <si>
+    <t>MetalicCat</t>
+  </si>
+  <si>
+    <t>機械をいじるねこ</t>
+  </si>
+  <si>
+    <t>PastelCat</t>
+  </si>
+  <si>
+    <t>ぱすてるねこ</t>
+  </si>
+  <si>
+    <t>SoupCat</t>
+  </si>
+  <si>
+    <t>ねことスープ</t>
+  </si>
+  <si>
+    <t>YJRob</t>
+  </si>
+  <si>
+    <t>YJ-R0B0T</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>仮想空間</t>
+  </si>
+  <si>
+    <t>Snowy</t>
+  </si>
+  <si>
+    <t>雪が降る</t>
   </si>
   <si>
     <t>minicrewmate</t>
@@ -247,50 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UwU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hex_World</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Window</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WDamogus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sabori</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FastFooSUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファストフード店</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さぼり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィンドウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読めるかな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>jre</t>
   </si>
   <si>
@@ -345,10 +431,16 @@
     <t>ooigawa</t>
   </si>
   <si>
+    <t>daitethu</t>
+  </si>
+  <si>
     <t>ner</t>
   </si>
   <si>
-    <t>daitethu</t>
+    <t>ZUNDA</t>
+  </si>
+  <si>
+    <t>ずんだもんアイコン</t>
   </si>
   <si>
     <t>exit</t>
@@ -368,76 +460,6 @@
       <t>キカイジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nyanko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Omochi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pinklwl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lwl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もちもち</t>
-  </si>
-  <si>
-    <t>ねこ</t>
-  </si>
-  <si>
-    <t>ZUNDA</t>
-  </si>
-  <si>
-    <t>ずんだもんアイコン</t>
-  </si>
-  <si>
-    <t>CampfireCat</t>
-  </si>
-  <si>
-    <t>キャンプするねこ</t>
-  </si>
-  <si>
-    <t>DoubleCat</t>
-  </si>
-  <si>
-    <t>だぶるねこ</t>
-  </si>
-  <si>
-    <t>GlassCat</t>
-  </si>
-  <si>
-    <t>草の中で寝るねこ</t>
-  </si>
-  <si>
-    <t>MagicCat</t>
-  </si>
-  <si>
-    <t>まほうねこ</t>
-  </si>
-  <si>
-    <t>MetalicCat</t>
-  </si>
-  <si>
-    <t>機械をいじるねこ</t>
-  </si>
-  <si>
-    <t>PastelCat</t>
-  </si>
-  <si>
-    <t>ぱすてるねこ</t>
-  </si>
-  <si>
-    <t>SoupCat</t>
-  </si>
-  <si>
-    <t>ねことスープ</t>
   </si>
   <si>
     <t>Famibe</t>
@@ -450,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +492,12 @@
       <color indexed="8"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292F"/>
+      <name val="Ui-Monospace"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -494,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,10 +531,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{E4540F09-C6AB-4CE6-8A8B-B63840EA1C38}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,20 +813,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:M63"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="13" max="13" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -847,26 +876,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -874,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -882,15 +911,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -898,132 +927,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>30</v>
       </c>
       <c r="M10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
         <v>50</v>
       </c>
-      <c r="M16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" t="s">
         <v>54</v>
       </c>
-      <c r="M18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" t="s">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1037,12 +1066,12 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1056,12 +1085,12 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1075,12 +1104,12 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1094,12 +1123,12 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1113,12 +1142,12 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1132,12 +1161,12 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1151,262 +1180,319 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="M44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="M45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="M48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="M58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="M40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="M41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="M42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="M43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="M45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="M46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="M47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="M50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="M54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-      <c r="M55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="M56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>81</v>
-      </c>
       <c r="M59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>83</v>
-      </c>
-      <c r="M61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="M64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26019"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF70FA4-C4C3-4FF6-AF16-D97CFA90A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Hat" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Hat" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjlm/cOR/IddrxndgU8xzoIHxkmwA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>English</t>
   </si>
@@ -85,195 +70,129 @@
   </si>
   <si>
     <t>Innersloth Nameplate</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Innersloth公式作</t>
   </si>
   <si>
     <t>yukieiji</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>yukieiji作</t>
-    <rPh sb="8" eb="9">
-      <t>サク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>developerBlue</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>開発者の証 - 青</t>
-    <rPh sb="0" eb="3">
-      <t>カイハツシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アカシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>developerRed</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>開発者の証 - 赤</t>
-    <rPh sb="0" eb="3">
-      <t>カイハツシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アカシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>starFieldGalaxy</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>スターフィールド - 銀河</t>
-    <rPh sb="11" eb="13">
-      <t>ギンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>starFieldNebura</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>スターフィールド - 星雲</t>
-    <rPh sb="11" eb="13">
-      <t>セイウン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>extremeRolesLogo</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ロゴ - Extreme Roles</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>extremeSkinsLogo</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ロゴ - Extreme Skins</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Niboshi</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>にぼしとねこ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SWND</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SW-Needle</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TJAP</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>なんかの達人っぽいなにか</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UT_Battle</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>さぁ、バトルだ!</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UwU</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hex</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hex_World</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>WDamogus</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>読めるかな</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Window</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ウィンドウ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Sabori</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>さぼり</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FastFooSUS</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ファストフード店</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Nyanko</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ねこ</t>
   </si>
   <si>
     <t>Omochi</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>もちもち</t>
   </si>
   <si>
     <t>Pinklwl</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>lwl</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CampfireCat</t>
@@ -336,45 +255,46 @@
     <t>雪が降る</t>
   </si>
   <si>
+    <t>KUSA</t>
+  </si>
+  <si>
+    <t>草。</t>
+  </si>
+  <si>
+    <t>Jitome</t>
+  </si>
+  <si>
+    <t>ジト目</t>
+  </si>
+  <si>
+    <t>HatterPlate</t>
+  </si>
+  <si>
+    <t>ハッターの証</t>
+  </si>
+  <si>
     <t>minicrewmate</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ミニクルーメイト</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ligftdown</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ライトダウン</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CAT</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>猫(青)</t>
-    <rPh sb="0" eb="1">
-      <t>ネコ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Gentle</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>紳士</t>
-    <rPh sb="0" eb="2">
-      <t>シンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>jre</t>
@@ -444,22 +364,15 @@
   </si>
   <si>
     <t>exit</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>非常口</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MechanicalBeast</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>機械獣</t>
-    <rPh sb="0" eb="3">
-      <t>キカイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Famibe</t>
@@ -471,34 +384,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF24292F"/>
-      <name val="Ui-Monospace"/>
-      <charset val="1"/>
+      <name val="Ui-monospace"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,65 +418,58 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{E4540F09-C6AB-4CE6-8A8B-B63840EA1C38}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -588,79 +493,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="游ゴシック"/>
+        <a:ea typeface="游ゴシック"/>
+        <a:cs typeface="游ゴシック"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="游ゴシック"/>
+        <a:ea typeface="游ゴシック"/>
+        <a:cs typeface="游ゴシック"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,703 +646,1666 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="13" max="13" width="38.875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="30.63"/>
+    <col customWidth="1" min="2" max="2" width="25.0"/>
+    <col customWidth="1" min="3" max="12" width="8.63"/>
+    <col customWidth="1" min="13" max="13" width="38.88"/>
+    <col customWidth="1" min="14" max="26" width="8.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
+    <row r="11" ht="18.75" customHeight="1"/>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" t="s">
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1" t="s">
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1" t="s">
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="4" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="4" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="4" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M35" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M36" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M37" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
+    <row r="38" ht="18.75" customHeight="1"/>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M39" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
+      <c r="M40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
+    </row>
+    <row r="41" ht="18.75" customHeight="1"/>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
+      <c r="M42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
+      <c r="M43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" t="s">
+    </row>
+    <row r="44" ht="18.75" customHeight="1"/>
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M46" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="s">
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
+      <c r="M48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M49" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M51" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="2" t="s">
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2" t="s">
+      <c r="M52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="3" t="s">
+      <c r="M53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
+      <c r="M54" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-      <c r="M57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" t="s">
+      <c r="M55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M56" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M59" t="s">
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
+      <c r="M61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M64" t="s">
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1" t="s">
+      <c r="M62" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="64" ht="18.75" customHeight="1"/>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1"/>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" customHeight="1"/>
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1"/>
+    <row r="71" ht="18.75" customHeight="1"/>
+    <row r="72" ht="18.75" customHeight="1"/>
+    <row r="73" ht="18.75" customHeight="1"/>
+    <row r="74" ht="18.75" customHeight="1"/>
+    <row r="75" ht="18.75" customHeight="1"/>
+    <row r="76" ht="18.75" customHeight="1"/>
+    <row r="77" ht="18.75" customHeight="1"/>
+    <row r="78" ht="18.75" customHeight="1"/>
+    <row r="79" ht="18.75" customHeight="1"/>
+    <row r="80" ht="18.75" customHeight="1"/>
+    <row r="81" ht="18.75" customHeight="1"/>
+    <row r="82" ht="18.75" customHeight="1"/>
+    <row r="83" ht="18.75" customHeight="1"/>
+    <row r="84" ht="18.75" customHeight="1"/>
+    <row r="85" ht="18.75" customHeight="1"/>
+    <row r="86" ht="18.75" customHeight="1"/>
+    <row r="87" ht="18.75" customHeight="1"/>
+    <row r="88" ht="18.75" customHeight="1"/>
+    <row r="89" ht="18.75" customHeight="1"/>
+    <row r="90" ht="18.75" customHeight="1"/>
+    <row r="91" ht="18.75" customHeight="1"/>
+    <row r="92" ht="18.75" customHeight="1"/>
+    <row r="93" ht="18.75" customHeight="1"/>
+    <row r="94" ht="18.75" customHeight="1"/>
+    <row r="95" ht="18.75" customHeight="1"/>
+    <row r="96" ht="18.75" customHeight="1"/>
+    <row r="97" ht="18.75" customHeight="1"/>
+    <row r="98" ht="18.75" customHeight="1"/>
+    <row r="99" ht="18.75" customHeight="1"/>
+    <row r="100" ht="18.75" customHeight="1"/>
+    <row r="101" ht="18.75" customHeight="1"/>
+    <row r="102" ht="18.75" customHeight="1"/>
+    <row r="103" ht="18.75" customHeight="1"/>
+    <row r="104" ht="18.75" customHeight="1"/>
+    <row r="105" ht="18.75" customHeight="1"/>
+    <row r="106" ht="18.75" customHeight="1"/>
+    <row r="107" ht="18.75" customHeight="1"/>
+    <row r="108" ht="18.75" customHeight="1"/>
+    <row r="109" ht="18.75" customHeight="1"/>
+    <row r="110" ht="18.75" customHeight="1"/>
+    <row r="111" ht="18.75" customHeight="1"/>
+    <row r="112" ht="18.75" customHeight="1"/>
+    <row r="113" ht="18.75" customHeight="1"/>
+    <row r="114" ht="18.75" customHeight="1"/>
+    <row r="115" ht="18.75" customHeight="1"/>
+    <row r="116" ht="18.75" customHeight="1"/>
+    <row r="117" ht="18.75" customHeight="1"/>
+    <row r="118" ht="18.75" customHeight="1"/>
+    <row r="119" ht="18.75" customHeight="1"/>
+    <row r="120" ht="18.75" customHeight="1"/>
+    <row r="121" ht="18.75" customHeight="1"/>
+    <row r="122" ht="18.75" customHeight="1"/>
+    <row r="123" ht="18.75" customHeight="1"/>
+    <row r="124" ht="18.75" customHeight="1"/>
+    <row r="125" ht="18.75" customHeight="1"/>
+    <row r="126" ht="18.75" customHeight="1"/>
+    <row r="127" ht="18.75" customHeight="1"/>
+    <row r="128" ht="18.75" customHeight="1"/>
+    <row r="129" ht="18.75" customHeight="1"/>
+    <row r="130" ht="18.75" customHeight="1"/>
+    <row r="131" ht="18.75" customHeight="1"/>
+    <row r="132" ht="18.75" customHeight="1"/>
+    <row r="133" ht="18.75" customHeight="1"/>
+    <row r="134" ht="18.75" customHeight="1"/>
+    <row r="135" ht="18.75" customHeight="1"/>
+    <row r="136" ht="18.75" customHeight="1"/>
+    <row r="137" ht="18.75" customHeight="1"/>
+    <row r="138" ht="18.75" customHeight="1"/>
+    <row r="139" ht="18.75" customHeight="1"/>
+    <row r="140" ht="18.75" customHeight="1"/>
+    <row r="141" ht="18.75" customHeight="1"/>
+    <row r="142" ht="18.75" customHeight="1"/>
+    <row r="143" ht="18.75" customHeight="1"/>
+    <row r="144" ht="18.75" customHeight="1"/>
+    <row r="145" ht="18.75" customHeight="1"/>
+    <row r="146" ht="18.75" customHeight="1"/>
+    <row r="147" ht="18.75" customHeight="1"/>
+    <row r="148" ht="18.75" customHeight="1"/>
+    <row r="149" ht="18.75" customHeight="1"/>
+    <row r="150" ht="18.75" customHeight="1"/>
+    <row r="151" ht="18.75" customHeight="1"/>
+    <row r="152" ht="18.75" customHeight="1"/>
+    <row r="153" ht="18.75" customHeight="1"/>
+    <row r="154" ht="18.75" customHeight="1"/>
+    <row r="155" ht="18.75" customHeight="1"/>
+    <row r="156" ht="18.75" customHeight="1"/>
+    <row r="157" ht="18.75" customHeight="1"/>
+    <row r="158" ht="18.75" customHeight="1"/>
+    <row r="159" ht="18.75" customHeight="1"/>
+    <row r="160" ht="18.75" customHeight="1"/>
+    <row r="161" ht="18.75" customHeight="1"/>
+    <row r="162" ht="18.75" customHeight="1"/>
+    <row r="163" ht="18.75" customHeight="1"/>
+    <row r="164" ht="18.75" customHeight="1"/>
+    <row r="165" ht="18.75" customHeight="1"/>
+    <row r="166" ht="18.75" customHeight="1"/>
+    <row r="167" ht="18.75" customHeight="1"/>
+    <row r="168" ht="18.75" customHeight="1"/>
+    <row r="169" ht="18.75" customHeight="1"/>
+    <row r="170" ht="18.75" customHeight="1"/>
+    <row r="171" ht="18.75" customHeight="1"/>
+    <row r="172" ht="18.75" customHeight="1"/>
+    <row r="173" ht="18.75" customHeight="1"/>
+    <row r="174" ht="18.75" customHeight="1"/>
+    <row r="175" ht="18.75" customHeight="1"/>
+    <row r="176" ht="18.75" customHeight="1"/>
+    <row r="177" ht="18.75" customHeight="1"/>
+    <row r="178" ht="18.75" customHeight="1"/>
+    <row r="179" ht="18.75" customHeight="1"/>
+    <row r="180" ht="18.75" customHeight="1"/>
+    <row r="181" ht="18.75" customHeight="1"/>
+    <row r="182" ht="18.75" customHeight="1"/>
+    <row r="183" ht="18.75" customHeight="1"/>
+    <row r="184" ht="18.75" customHeight="1"/>
+    <row r="185" ht="18.75" customHeight="1"/>
+    <row r="186" ht="18.75" customHeight="1"/>
+    <row r="187" ht="18.75" customHeight="1"/>
+    <row r="188" ht="18.75" customHeight="1"/>
+    <row r="189" ht="18.75" customHeight="1"/>
+    <row r="190" ht="18.75" customHeight="1"/>
+    <row r="191" ht="18.75" customHeight="1"/>
+    <row r="192" ht="18.75" customHeight="1"/>
+    <row r="193" ht="18.75" customHeight="1"/>
+    <row r="194" ht="18.75" customHeight="1"/>
+    <row r="195" ht="18.75" customHeight="1"/>
+    <row r="196" ht="18.75" customHeight="1"/>
+    <row r="197" ht="18.75" customHeight="1"/>
+    <row r="198" ht="18.75" customHeight="1"/>
+    <row r="199" ht="18.75" customHeight="1"/>
+    <row r="200" ht="18.75" customHeight="1"/>
+    <row r="201" ht="18.75" customHeight="1"/>
+    <row r="202" ht="18.75" customHeight="1"/>
+    <row r="203" ht="18.75" customHeight="1"/>
+    <row r="204" ht="18.75" customHeight="1"/>
+    <row r="205" ht="18.75" customHeight="1"/>
+    <row r="206" ht="18.75" customHeight="1"/>
+    <row r="207" ht="18.75" customHeight="1"/>
+    <row r="208" ht="18.75" customHeight="1"/>
+    <row r="209" ht="18.75" customHeight="1"/>
+    <row r="210" ht="18.75" customHeight="1"/>
+    <row r="211" ht="18.75" customHeight="1"/>
+    <row r="212" ht="18.75" customHeight="1"/>
+    <row r="213" ht="18.75" customHeight="1"/>
+    <row r="214" ht="18.75" customHeight="1"/>
+    <row r="215" ht="18.75" customHeight="1"/>
+    <row r="216" ht="18.75" customHeight="1"/>
+    <row r="217" ht="18.75" customHeight="1"/>
+    <row r="218" ht="18.75" customHeight="1"/>
+    <row r="219" ht="18.75" customHeight="1"/>
+    <row r="220" ht="18.75" customHeight="1"/>
+    <row r="221" ht="18.75" customHeight="1"/>
+    <row r="222" ht="18.75" customHeight="1"/>
+    <row r="223" ht="18.75" customHeight="1"/>
+    <row r="224" ht="18.75" customHeight="1"/>
+    <row r="225" ht="18.75" customHeight="1"/>
+    <row r="226" ht="18.75" customHeight="1"/>
+    <row r="227" ht="18.75" customHeight="1"/>
+    <row r="228" ht="18.75" customHeight="1"/>
+    <row r="229" ht="18.75" customHeight="1"/>
+    <row r="230" ht="18.75" customHeight="1"/>
+    <row r="231" ht="18.75" customHeight="1"/>
+    <row r="232" ht="18.75" customHeight="1"/>
+    <row r="233" ht="18.75" customHeight="1"/>
+    <row r="234" ht="18.75" customHeight="1"/>
+    <row r="235" ht="18.75" customHeight="1"/>
+    <row r="236" ht="18.75" customHeight="1"/>
+    <row r="237" ht="18.75" customHeight="1"/>
+    <row r="238" ht="18.75" customHeight="1"/>
+    <row r="239" ht="18.75" customHeight="1"/>
+    <row r="240" ht="18.75" customHeight="1"/>
+    <row r="241" ht="18.75" customHeight="1"/>
+    <row r="242" ht="18.75" customHeight="1"/>
+    <row r="243" ht="18.75" customHeight="1"/>
+    <row r="244" ht="18.75" customHeight="1"/>
+    <row r="245" ht="18.75" customHeight="1"/>
+    <row r="246" ht="18.75" customHeight="1"/>
+    <row r="247" ht="18.75" customHeight="1"/>
+    <row r="248" ht="18.75" customHeight="1"/>
+    <row r="249" ht="18.75" customHeight="1"/>
+    <row r="250" ht="18.75" customHeight="1"/>
+    <row r="251" ht="18.75" customHeight="1"/>
+    <row r="252" ht="18.75" customHeight="1"/>
+    <row r="253" ht="18.75" customHeight="1"/>
+    <row r="254" ht="18.75" customHeight="1"/>
+    <row r="255" ht="18.75" customHeight="1"/>
+    <row r="256" ht="18.75" customHeight="1"/>
+    <row r="257" ht="18.75" customHeight="1"/>
+    <row r="258" ht="18.75" customHeight="1"/>
+    <row r="259" ht="18.75" customHeight="1"/>
+    <row r="260" ht="18.75" customHeight="1"/>
+    <row r="261" ht="18.75" customHeight="1"/>
+    <row r="262" ht="18.75" customHeight="1"/>
+    <row r="263" ht="18.75" customHeight="1"/>
+    <row r="264" ht="18.75" customHeight="1"/>
+    <row r="265" ht="18.75" customHeight="1"/>
+    <row r="266" ht="18.75" customHeight="1"/>
+    <row r="267" ht="18.75" customHeight="1"/>
+    <row r="268" ht="18.75" customHeight="1"/>
+    <row r="269" ht="18.75" customHeight="1"/>
+    <row r="270" ht="18.75" customHeight="1"/>
+    <row r="271" ht="18.75" customHeight="1"/>
+    <row r="272" ht="18.75" customHeight="1"/>
+    <row r="273" ht="18.75" customHeight="1"/>
+    <row r="274" ht="18.75" customHeight="1"/>
+    <row r="275" ht="18.75" customHeight="1"/>
+    <row r="276" ht="18.75" customHeight="1"/>
+    <row r="277" ht="18.75" customHeight="1"/>
+    <row r="278" ht="18.75" customHeight="1"/>
+    <row r="279" ht="18.75" customHeight="1"/>
+    <row r="280" ht="18.75" customHeight="1"/>
+    <row r="281" ht="18.75" customHeight="1"/>
+    <row r="282" ht="18.75" customHeight="1"/>
+    <row r="283" ht="18.75" customHeight="1"/>
+    <row r="284" ht="18.75" customHeight="1"/>
+    <row r="285" ht="18.75" customHeight="1"/>
+    <row r="286" ht="18.75" customHeight="1"/>
+    <row r="287" ht="18.75" customHeight="1"/>
+    <row r="288" ht="18.75" customHeight="1"/>
+    <row r="289" ht="18.75" customHeight="1"/>
+    <row r="290" ht="18.75" customHeight="1"/>
+    <row r="291" ht="18.75" customHeight="1"/>
+    <row r="292" ht="18.75" customHeight="1"/>
+    <row r="293" ht="18.75" customHeight="1"/>
+    <row r="294" ht="18.75" customHeight="1"/>
+    <row r="295" ht="18.75" customHeight="1"/>
+    <row r="296" ht="18.75" customHeight="1"/>
+    <row r="297" ht="18.75" customHeight="1"/>
+    <row r="298" ht="18.75" customHeight="1"/>
+    <row r="299" ht="18.75" customHeight="1"/>
+    <row r="300" ht="18.75" customHeight="1"/>
+    <row r="301" ht="18.75" customHeight="1"/>
+    <row r="302" ht="18.75" customHeight="1"/>
+    <row r="303" ht="18.75" customHeight="1"/>
+    <row r="304" ht="18.75" customHeight="1"/>
+    <row r="305" ht="18.75" customHeight="1"/>
+    <row r="306" ht="18.75" customHeight="1"/>
+    <row r="307" ht="18.75" customHeight="1"/>
+    <row r="308" ht="18.75" customHeight="1"/>
+    <row r="309" ht="18.75" customHeight="1"/>
+    <row r="310" ht="18.75" customHeight="1"/>
+    <row r="311" ht="18.75" customHeight="1"/>
+    <row r="312" ht="18.75" customHeight="1"/>
+    <row r="313" ht="18.75" customHeight="1"/>
+    <row r="314" ht="18.75" customHeight="1"/>
+    <row r="315" ht="18.75" customHeight="1"/>
+    <row r="316" ht="18.75" customHeight="1"/>
+    <row r="317" ht="18.75" customHeight="1"/>
+    <row r="318" ht="18.75" customHeight="1"/>
+    <row r="319" ht="18.75" customHeight="1"/>
+    <row r="320" ht="18.75" customHeight="1"/>
+    <row r="321" ht="18.75" customHeight="1"/>
+    <row r="322" ht="18.75" customHeight="1"/>
+    <row r="323" ht="18.75" customHeight="1"/>
+    <row r="324" ht="18.75" customHeight="1"/>
+    <row r="325" ht="18.75" customHeight="1"/>
+    <row r="326" ht="18.75" customHeight="1"/>
+    <row r="327" ht="18.75" customHeight="1"/>
+    <row r="328" ht="18.75" customHeight="1"/>
+    <row r="329" ht="18.75" customHeight="1"/>
+    <row r="330" ht="18.75" customHeight="1"/>
+    <row r="331" ht="18.75" customHeight="1"/>
+    <row r="332" ht="18.75" customHeight="1"/>
+    <row r="333" ht="18.75" customHeight="1"/>
+    <row r="334" ht="18.75" customHeight="1"/>
+    <row r="335" ht="18.75" customHeight="1"/>
+    <row r="336" ht="18.75" customHeight="1"/>
+    <row r="337" ht="18.75" customHeight="1"/>
+    <row r="338" ht="18.75" customHeight="1"/>
+    <row r="339" ht="18.75" customHeight="1"/>
+    <row r="340" ht="18.75" customHeight="1"/>
+    <row r="341" ht="18.75" customHeight="1"/>
+    <row r="342" ht="18.75" customHeight="1"/>
+    <row r="343" ht="18.75" customHeight="1"/>
+    <row r="344" ht="18.75" customHeight="1"/>
+    <row r="345" ht="18.75" customHeight="1"/>
+    <row r="346" ht="18.75" customHeight="1"/>
+    <row r="347" ht="18.75" customHeight="1"/>
+    <row r="348" ht="18.75" customHeight="1"/>
+    <row r="349" ht="18.75" customHeight="1"/>
+    <row r="350" ht="18.75" customHeight="1"/>
+    <row r="351" ht="18.75" customHeight="1"/>
+    <row r="352" ht="18.75" customHeight="1"/>
+    <row r="353" ht="18.75" customHeight="1"/>
+    <row r="354" ht="18.75" customHeight="1"/>
+    <row r="355" ht="18.75" customHeight="1"/>
+    <row r="356" ht="18.75" customHeight="1"/>
+    <row r="357" ht="18.75" customHeight="1"/>
+    <row r="358" ht="18.75" customHeight="1"/>
+    <row r="359" ht="18.75" customHeight="1"/>
+    <row r="360" ht="18.75" customHeight="1"/>
+    <row r="361" ht="18.75" customHeight="1"/>
+    <row r="362" ht="18.75" customHeight="1"/>
+    <row r="363" ht="18.75" customHeight="1"/>
+    <row r="364" ht="18.75" customHeight="1"/>
+    <row r="365" ht="18.75" customHeight="1"/>
+    <row r="366" ht="18.75" customHeight="1"/>
+    <row r="367" ht="18.75" customHeight="1"/>
+    <row r="368" ht="18.75" customHeight="1"/>
+    <row r="369" ht="18.75" customHeight="1"/>
+    <row r="370" ht="18.75" customHeight="1"/>
+    <row r="371" ht="18.75" customHeight="1"/>
+    <row r="372" ht="18.75" customHeight="1"/>
+    <row r="373" ht="18.75" customHeight="1"/>
+    <row r="374" ht="18.75" customHeight="1"/>
+    <row r="375" ht="18.75" customHeight="1"/>
+    <row r="376" ht="18.75" customHeight="1"/>
+    <row r="377" ht="18.75" customHeight="1"/>
+    <row r="378" ht="18.75" customHeight="1"/>
+    <row r="379" ht="18.75" customHeight="1"/>
+    <row r="380" ht="18.75" customHeight="1"/>
+    <row r="381" ht="18.75" customHeight="1"/>
+    <row r="382" ht="18.75" customHeight="1"/>
+    <row r="383" ht="18.75" customHeight="1"/>
+    <row r="384" ht="18.75" customHeight="1"/>
+    <row r="385" ht="18.75" customHeight="1"/>
+    <row r="386" ht="18.75" customHeight="1"/>
+    <row r="387" ht="18.75" customHeight="1"/>
+    <row r="388" ht="18.75" customHeight="1"/>
+    <row r="389" ht="18.75" customHeight="1"/>
+    <row r="390" ht="18.75" customHeight="1"/>
+    <row r="391" ht="18.75" customHeight="1"/>
+    <row r="392" ht="18.75" customHeight="1"/>
+    <row r="393" ht="18.75" customHeight="1"/>
+    <row r="394" ht="18.75" customHeight="1"/>
+    <row r="395" ht="18.75" customHeight="1"/>
+    <row r="396" ht="18.75" customHeight="1"/>
+    <row r="397" ht="18.75" customHeight="1"/>
+    <row r="398" ht="18.75" customHeight="1"/>
+    <row r="399" ht="18.75" customHeight="1"/>
+    <row r="400" ht="18.75" customHeight="1"/>
+    <row r="401" ht="18.75" customHeight="1"/>
+    <row r="402" ht="18.75" customHeight="1"/>
+    <row r="403" ht="18.75" customHeight="1"/>
+    <row r="404" ht="18.75" customHeight="1"/>
+    <row r="405" ht="18.75" customHeight="1"/>
+    <row r="406" ht="18.75" customHeight="1"/>
+    <row r="407" ht="18.75" customHeight="1"/>
+    <row r="408" ht="18.75" customHeight="1"/>
+    <row r="409" ht="18.75" customHeight="1"/>
+    <row r="410" ht="18.75" customHeight="1"/>
+    <row r="411" ht="18.75" customHeight="1"/>
+    <row r="412" ht="18.75" customHeight="1"/>
+    <row r="413" ht="18.75" customHeight="1"/>
+    <row r="414" ht="18.75" customHeight="1"/>
+    <row r="415" ht="18.75" customHeight="1"/>
+    <row r="416" ht="18.75" customHeight="1"/>
+    <row r="417" ht="18.75" customHeight="1"/>
+    <row r="418" ht="18.75" customHeight="1"/>
+    <row r="419" ht="18.75" customHeight="1"/>
+    <row r="420" ht="18.75" customHeight="1"/>
+    <row r="421" ht="18.75" customHeight="1"/>
+    <row r="422" ht="18.75" customHeight="1"/>
+    <row r="423" ht="18.75" customHeight="1"/>
+    <row r="424" ht="18.75" customHeight="1"/>
+    <row r="425" ht="18.75" customHeight="1"/>
+    <row r="426" ht="18.75" customHeight="1"/>
+    <row r="427" ht="18.75" customHeight="1"/>
+    <row r="428" ht="18.75" customHeight="1"/>
+    <row r="429" ht="18.75" customHeight="1"/>
+    <row r="430" ht="18.75" customHeight="1"/>
+    <row r="431" ht="18.75" customHeight="1"/>
+    <row r="432" ht="18.75" customHeight="1"/>
+    <row r="433" ht="18.75" customHeight="1"/>
+    <row r="434" ht="18.75" customHeight="1"/>
+    <row r="435" ht="18.75" customHeight="1"/>
+    <row r="436" ht="18.75" customHeight="1"/>
+    <row r="437" ht="18.75" customHeight="1"/>
+    <row r="438" ht="18.75" customHeight="1"/>
+    <row r="439" ht="18.75" customHeight="1"/>
+    <row r="440" ht="18.75" customHeight="1"/>
+    <row r="441" ht="18.75" customHeight="1"/>
+    <row r="442" ht="18.75" customHeight="1"/>
+    <row r="443" ht="18.75" customHeight="1"/>
+    <row r="444" ht="18.75" customHeight="1"/>
+    <row r="445" ht="18.75" customHeight="1"/>
+    <row r="446" ht="18.75" customHeight="1"/>
+    <row r="447" ht="18.75" customHeight="1"/>
+    <row r="448" ht="18.75" customHeight="1"/>
+    <row r="449" ht="18.75" customHeight="1"/>
+    <row r="450" ht="18.75" customHeight="1"/>
+    <row r="451" ht="18.75" customHeight="1"/>
+    <row r="452" ht="18.75" customHeight="1"/>
+    <row r="453" ht="18.75" customHeight="1"/>
+    <row r="454" ht="18.75" customHeight="1"/>
+    <row r="455" ht="18.75" customHeight="1"/>
+    <row r="456" ht="18.75" customHeight="1"/>
+    <row r="457" ht="18.75" customHeight="1"/>
+    <row r="458" ht="18.75" customHeight="1"/>
+    <row r="459" ht="18.75" customHeight="1"/>
+    <row r="460" ht="18.75" customHeight="1"/>
+    <row r="461" ht="18.75" customHeight="1"/>
+    <row r="462" ht="18.75" customHeight="1"/>
+    <row r="463" ht="18.75" customHeight="1"/>
+    <row r="464" ht="18.75" customHeight="1"/>
+    <row r="465" ht="18.75" customHeight="1"/>
+    <row r="466" ht="18.75" customHeight="1"/>
+    <row r="467" ht="18.75" customHeight="1"/>
+    <row r="468" ht="18.75" customHeight="1"/>
+    <row r="469" ht="18.75" customHeight="1"/>
+    <row r="470" ht="18.75" customHeight="1"/>
+    <row r="471" ht="18.75" customHeight="1"/>
+    <row r="472" ht="18.75" customHeight="1"/>
+    <row r="473" ht="18.75" customHeight="1"/>
+    <row r="474" ht="18.75" customHeight="1"/>
+    <row r="475" ht="18.75" customHeight="1"/>
+    <row r="476" ht="18.75" customHeight="1"/>
+    <row r="477" ht="18.75" customHeight="1"/>
+    <row r="478" ht="18.75" customHeight="1"/>
+    <row r="479" ht="18.75" customHeight="1"/>
+    <row r="480" ht="18.75" customHeight="1"/>
+    <row r="481" ht="18.75" customHeight="1"/>
+    <row r="482" ht="18.75" customHeight="1"/>
+    <row r="483" ht="18.75" customHeight="1"/>
+    <row r="484" ht="18.75" customHeight="1"/>
+    <row r="485" ht="18.75" customHeight="1"/>
+    <row r="486" ht="18.75" customHeight="1"/>
+    <row r="487" ht="18.75" customHeight="1"/>
+    <row r="488" ht="18.75" customHeight="1"/>
+    <row r="489" ht="18.75" customHeight="1"/>
+    <row r="490" ht="18.75" customHeight="1"/>
+    <row r="491" ht="18.75" customHeight="1"/>
+    <row r="492" ht="18.75" customHeight="1"/>
+    <row r="493" ht="18.75" customHeight="1"/>
+    <row r="494" ht="18.75" customHeight="1"/>
+    <row r="495" ht="18.75" customHeight="1"/>
+    <row r="496" ht="18.75" customHeight="1"/>
+    <row r="497" ht="18.75" customHeight="1"/>
+    <row r="498" ht="18.75" customHeight="1"/>
+    <row r="499" ht="18.75" customHeight="1"/>
+    <row r="500" ht="18.75" customHeight="1"/>
+    <row r="501" ht="18.75" customHeight="1"/>
+    <row r="502" ht="18.75" customHeight="1"/>
+    <row r="503" ht="18.75" customHeight="1"/>
+    <row r="504" ht="18.75" customHeight="1"/>
+    <row r="505" ht="18.75" customHeight="1"/>
+    <row r="506" ht="18.75" customHeight="1"/>
+    <row r="507" ht="18.75" customHeight="1"/>
+    <row r="508" ht="18.75" customHeight="1"/>
+    <row r="509" ht="18.75" customHeight="1"/>
+    <row r="510" ht="18.75" customHeight="1"/>
+    <row r="511" ht="18.75" customHeight="1"/>
+    <row r="512" ht="18.75" customHeight="1"/>
+    <row r="513" ht="18.75" customHeight="1"/>
+    <row r="514" ht="18.75" customHeight="1"/>
+    <row r="515" ht="18.75" customHeight="1"/>
+    <row r="516" ht="18.75" customHeight="1"/>
+    <row r="517" ht="18.75" customHeight="1"/>
+    <row r="518" ht="18.75" customHeight="1"/>
+    <row r="519" ht="18.75" customHeight="1"/>
+    <row r="520" ht="18.75" customHeight="1"/>
+    <row r="521" ht="18.75" customHeight="1"/>
+    <row r="522" ht="18.75" customHeight="1"/>
+    <row r="523" ht="18.75" customHeight="1"/>
+    <row r="524" ht="18.75" customHeight="1"/>
+    <row r="525" ht="18.75" customHeight="1"/>
+    <row r="526" ht="18.75" customHeight="1"/>
+    <row r="527" ht="18.75" customHeight="1"/>
+    <row r="528" ht="18.75" customHeight="1"/>
+    <row r="529" ht="18.75" customHeight="1"/>
+    <row r="530" ht="18.75" customHeight="1"/>
+    <row r="531" ht="18.75" customHeight="1"/>
+    <row r="532" ht="18.75" customHeight="1"/>
+    <row r="533" ht="18.75" customHeight="1"/>
+    <row r="534" ht="18.75" customHeight="1"/>
+    <row r="535" ht="18.75" customHeight="1"/>
+    <row r="536" ht="18.75" customHeight="1"/>
+    <row r="537" ht="18.75" customHeight="1"/>
+    <row r="538" ht="18.75" customHeight="1"/>
+    <row r="539" ht="18.75" customHeight="1"/>
+    <row r="540" ht="18.75" customHeight="1"/>
+    <row r="541" ht="18.75" customHeight="1"/>
+    <row r="542" ht="18.75" customHeight="1"/>
+    <row r="543" ht="18.75" customHeight="1"/>
+    <row r="544" ht="18.75" customHeight="1"/>
+    <row r="545" ht="18.75" customHeight="1"/>
+    <row r="546" ht="18.75" customHeight="1"/>
+    <row r="547" ht="18.75" customHeight="1"/>
+    <row r="548" ht="18.75" customHeight="1"/>
+    <row r="549" ht="18.75" customHeight="1"/>
+    <row r="550" ht="18.75" customHeight="1"/>
+    <row r="551" ht="18.75" customHeight="1"/>
+    <row r="552" ht="18.75" customHeight="1"/>
+    <row r="553" ht="18.75" customHeight="1"/>
+    <row r="554" ht="18.75" customHeight="1"/>
+    <row r="555" ht="18.75" customHeight="1"/>
+    <row r="556" ht="18.75" customHeight="1"/>
+    <row r="557" ht="18.75" customHeight="1"/>
+    <row r="558" ht="18.75" customHeight="1"/>
+    <row r="559" ht="18.75" customHeight="1"/>
+    <row r="560" ht="18.75" customHeight="1"/>
+    <row r="561" ht="18.75" customHeight="1"/>
+    <row r="562" ht="18.75" customHeight="1"/>
+    <row r="563" ht="18.75" customHeight="1"/>
+    <row r="564" ht="18.75" customHeight="1"/>
+    <row r="565" ht="18.75" customHeight="1"/>
+    <row r="566" ht="18.75" customHeight="1"/>
+    <row r="567" ht="18.75" customHeight="1"/>
+    <row r="568" ht="18.75" customHeight="1"/>
+    <row r="569" ht="18.75" customHeight="1"/>
+    <row r="570" ht="18.75" customHeight="1"/>
+    <row r="571" ht="18.75" customHeight="1"/>
+    <row r="572" ht="18.75" customHeight="1"/>
+    <row r="573" ht="18.75" customHeight="1"/>
+    <row r="574" ht="18.75" customHeight="1"/>
+    <row r="575" ht="18.75" customHeight="1"/>
+    <row r="576" ht="18.75" customHeight="1"/>
+    <row r="577" ht="18.75" customHeight="1"/>
+    <row r="578" ht="18.75" customHeight="1"/>
+    <row r="579" ht="18.75" customHeight="1"/>
+    <row r="580" ht="18.75" customHeight="1"/>
+    <row r="581" ht="18.75" customHeight="1"/>
+    <row r="582" ht="18.75" customHeight="1"/>
+    <row r="583" ht="18.75" customHeight="1"/>
+    <row r="584" ht="18.75" customHeight="1"/>
+    <row r="585" ht="18.75" customHeight="1"/>
+    <row r="586" ht="18.75" customHeight="1"/>
+    <row r="587" ht="18.75" customHeight="1"/>
+    <row r="588" ht="18.75" customHeight="1"/>
+    <row r="589" ht="18.75" customHeight="1"/>
+    <row r="590" ht="18.75" customHeight="1"/>
+    <row r="591" ht="18.75" customHeight="1"/>
+    <row r="592" ht="18.75" customHeight="1"/>
+    <row r="593" ht="18.75" customHeight="1"/>
+    <row r="594" ht="18.75" customHeight="1"/>
+    <row r="595" ht="18.75" customHeight="1"/>
+    <row r="596" ht="18.75" customHeight="1"/>
+    <row r="597" ht="18.75" customHeight="1"/>
+    <row r="598" ht="18.75" customHeight="1"/>
+    <row r="599" ht="18.75" customHeight="1"/>
+    <row r="600" ht="18.75" customHeight="1"/>
+    <row r="601" ht="18.75" customHeight="1"/>
+    <row r="602" ht="18.75" customHeight="1"/>
+    <row r="603" ht="18.75" customHeight="1"/>
+    <row r="604" ht="18.75" customHeight="1"/>
+    <row r="605" ht="18.75" customHeight="1"/>
+    <row r="606" ht="18.75" customHeight="1"/>
+    <row r="607" ht="18.75" customHeight="1"/>
+    <row r="608" ht="18.75" customHeight="1"/>
+    <row r="609" ht="18.75" customHeight="1"/>
+    <row r="610" ht="18.75" customHeight="1"/>
+    <row r="611" ht="18.75" customHeight="1"/>
+    <row r="612" ht="18.75" customHeight="1"/>
+    <row r="613" ht="18.75" customHeight="1"/>
+    <row r="614" ht="18.75" customHeight="1"/>
+    <row r="615" ht="18.75" customHeight="1"/>
+    <row r="616" ht="18.75" customHeight="1"/>
+    <row r="617" ht="18.75" customHeight="1"/>
+    <row r="618" ht="18.75" customHeight="1"/>
+    <row r="619" ht="18.75" customHeight="1"/>
+    <row r="620" ht="18.75" customHeight="1"/>
+    <row r="621" ht="18.75" customHeight="1"/>
+    <row r="622" ht="18.75" customHeight="1"/>
+    <row r="623" ht="18.75" customHeight="1"/>
+    <row r="624" ht="18.75" customHeight="1"/>
+    <row r="625" ht="18.75" customHeight="1"/>
+    <row r="626" ht="18.75" customHeight="1"/>
+    <row r="627" ht="18.75" customHeight="1"/>
+    <row r="628" ht="18.75" customHeight="1"/>
+    <row r="629" ht="18.75" customHeight="1"/>
+    <row r="630" ht="18.75" customHeight="1"/>
+    <row r="631" ht="18.75" customHeight="1"/>
+    <row r="632" ht="18.75" customHeight="1"/>
+    <row r="633" ht="18.75" customHeight="1"/>
+    <row r="634" ht="18.75" customHeight="1"/>
+    <row r="635" ht="18.75" customHeight="1"/>
+    <row r="636" ht="18.75" customHeight="1"/>
+    <row r="637" ht="18.75" customHeight="1"/>
+    <row r="638" ht="18.75" customHeight="1"/>
+    <row r="639" ht="18.75" customHeight="1"/>
+    <row r="640" ht="18.75" customHeight="1"/>
+    <row r="641" ht="18.75" customHeight="1"/>
+    <row r="642" ht="18.75" customHeight="1"/>
+    <row r="643" ht="18.75" customHeight="1"/>
+    <row r="644" ht="18.75" customHeight="1"/>
+    <row r="645" ht="18.75" customHeight="1"/>
+    <row r="646" ht="18.75" customHeight="1"/>
+    <row r="647" ht="18.75" customHeight="1"/>
+    <row r="648" ht="18.75" customHeight="1"/>
+    <row r="649" ht="18.75" customHeight="1"/>
+    <row r="650" ht="18.75" customHeight="1"/>
+    <row r="651" ht="18.75" customHeight="1"/>
+    <row r="652" ht="18.75" customHeight="1"/>
+    <row r="653" ht="18.75" customHeight="1"/>
+    <row r="654" ht="18.75" customHeight="1"/>
+    <row r="655" ht="18.75" customHeight="1"/>
+    <row r="656" ht="18.75" customHeight="1"/>
+    <row r="657" ht="18.75" customHeight="1"/>
+    <row r="658" ht="18.75" customHeight="1"/>
+    <row r="659" ht="18.75" customHeight="1"/>
+    <row r="660" ht="18.75" customHeight="1"/>
+    <row r="661" ht="18.75" customHeight="1"/>
+    <row r="662" ht="18.75" customHeight="1"/>
+    <row r="663" ht="18.75" customHeight="1"/>
+    <row r="664" ht="18.75" customHeight="1"/>
+    <row r="665" ht="18.75" customHeight="1"/>
+    <row r="666" ht="18.75" customHeight="1"/>
+    <row r="667" ht="18.75" customHeight="1"/>
+    <row r="668" ht="18.75" customHeight="1"/>
+    <row r="669" ht="18.75" customHeight="1"/>
+    <row r="670" ht="18.75" customHeight="1"/>
+    <row r="671" ht="18.75" customHeight="1"/>
+    <row r="672" ht="18.75" customHeight="1"/>
+    <row r="673" ht="18.75" customHeight="1"/>
+    <row r="674" ht="18.75" customHeight="1"/>
+    <row r="675" ht="18.75" customHeight="1"/>
+    <row r="676" ht="18.75" customHeight="1"/>
+    <row r="677" ht="18.75" customHeight="1"/>
+    <row r="678" ht="18.75" customHeight="1"/>
+    <row r="679" ht="18.75" customHeight="1"/>
+    <row r="680" ht="18.75" customHeight="1"/>
+    <row r="681" ht="18.75" customHeight="1"/>
+    <row r="682" ht="18.75" customHeight="1"/>
+    <row r="683" ht="18.75" customHeight="1"/>
+    <row r="684" ht="18.75" customHeight="1"/>
+    <row r="685" ht="18.75" customHeight="1"/>
+    <row r="686" ht="18.75" customHeight="1"/>
+    <row r="687" ht="18.75" customHeight="1"/>
+    <row r="688" ht="18.75" customHeight="1"/>
+    <row r="689" ht="18.75" customHeight="1"/>
+    <row r="690" ht="18.75" customHeight="1"/>
+    <row r="691" ht="18.75" customHeight="1"/>
+    <row r="692" ht="18.75" customHeight="1"/>
+    <row r="693" ht="18.75" customHeight="1"/>
+    <row r="694" ht="18.75" customHeight="1"/>
+    <row r="695" ht="18.75" customHeight="1"/>
+    <row r="696" ht="18.75" customHeight="1"/>
+    <row r="697" ht="18.75" customHeight="1"/>
+    <row r="698" ht="18.75" customHeight="1"/>
+    <row r="699" ht="18.75" customHeight="1"/>
+    <row r="700" ht="18.75" customHeight="1"/>
+    <row r="701" ht="18.75" customHeight="1"/>
+    <row r="702" ht="18.75" customHeight="1"/>
+    <row r="703" ht="18.75" customHeight="1"/>
+    <row r="704" ht="18.75" customHeight="1"/>
+    <row r="705" ht="18.75" customHeight="1"/>
+    <row r="706" ht="18.75" customHeight="1"/>
+    <row r="707" ht="18.75" customHeight="1"/>
+    <row r="708" ht="18.75" customHeight="1"/>
+    <row r="709" ht="18.75" customHeight="1"/>
+    <row r="710" ht="18.75" customHeight="1"/>
+    <row r="711" ht="18.75" customHeight="1"/>
+    <row r="712" ht="18.75" customHeight="1"/>
+    <row r="713" ht="18.75" customHeight="1"/>
+    <row r="714" ht="18.75" customHeight="1"/>
+    <row r="715" ht="18.75" customHeight="1"/>
+    <row r="716" ht="18.75" customHeight="1"/>
+    <row r="717" ht="18.75" customHeight="1"/>
+    <row r="718" ht="18.75" customHeight="1"/>
+    <row r="719" ht="18.75" customHeight="1"/>
+    <row r="720" ht="18.75" customHeight="1"/>
+    <row r="721" ht="18.75" customHeight="1"/>
+    <row r="722" ht="18.75" customHeight="1"/>
+    <row r="723" ht="18.75" customHeight="1"/>
+    <row r="724" ht="18.75" customHeight="1"/>
+    <row r="725" ht="18.75" customHeight="1"/>
+    <row r="726" ht="18.75" customHeight="1"/>
+    <row r="727" ht="18.75" customHeight="1"/>
+    <row r="728" ht="18.75" customHeight="1"/>
+    <row r="729" ht="18.75" customHeight="1"/>
+    <row r="730" ht="18.75" customHeight="1"/>
+    <row r="731" ht="18.75" customHeight="1"/>
+    <row r="732" ht="18.75" customHeight="1"/>
+    <row r="733" ht="18.75" customHeight="1"/>
+    <row r="734" ht="18.75" customHeight="1"/>
+    <row r="735" ht="18.75" customHeight="1"/>
+    <row r="736" ht="18.75" customHeight="1"/>
+    <row r="737" ht="18.75" customHeight="1"/>
+    <row r="738" ht="18.75" customHeight="1"/>
+    <row r="739" ht="18.75" customHeight="1"/>
+    <row r="740" ht="18.75" customHeight="1"/>
+    <row r="741" ht="18.75" customHeight="1"/>
+    <row r="742" ht="18.75" customHeight="1"/>
+    <row r="743" ht="18.75" customHeight="1"/>
+    <row r="744" ht="18.75" customHeight="1"/>
+    <row r="745" ht="18.75" customHeight="1"/>
+    <row r="746" ht="18.75" customHeight="1"/>
+    <row r="747" ht="18.75" customHeight="1"/>
+    <row r="748" ht="18.75" customHeight="1"/>
+    <row r="749" ht="18.75" customHeight="1"/>
+    <row r="750" ht="18.75" customHeight="1"/>
+    <row r="751" ht="18.75" customHeight="1"/>
+    <row r="752" ht="18.75" customHeight="1"/>
+    <row r="753" ht="18.75" customHeight="1"/>
+    <row r="754" ht="18.75" customHeight="1"/>
+    <row r="755" ht="18.75" customHeight="1"/>
+    <row r="756" ht="18.75" customHeight="1"/>
+    <row r="757" ht="18.75" customHeight="1"/>
+    <row r="758" ht="18.75" customHeight="1"/>
+    <row r="759" ht="18.75" customHeight="1"/>
+    <row r="760" ht="18.75" customHeight="1"/>
+    <row r="761" ht="18.75" customHeight="1"/>
+    <row r="762" ht="18.75" customHeight="1"/>
+    <row r="763" ht="18.75" customHeight="1"/>
+    <row r="764" ht="18.75" customHeight="1"/>
+    <row r="765" ht="18.75" customHeight="1"/>
+    <row r="766" ht="18.75" customHeight="1"/>
+    <row r="767" ht="18.75" customHeight="1"/>
+    <row r="768" ht="18.75" customHeight="1"/>
+    <row r="769" ht="18.75" customHeight="1"/>
+    <row r="770" ht="18.75" customHeight="1"/>
+    <row r="771" ht="18.75" customHeight="1"/>
+    <row r="772" ht="18.75" customHeight="1"/>
+    <row r="773" ht="18.75" customHeight="1"/>
+    <row r="774" ht="18.75" customHeight="1"/>
+    <row r="775" ht="18.75" customHeight="1"/>
+    <row r="776" ht="18.75" customHeight="1"/>
+    <row r="777" ht="18.75" customHeight="1"/>
+    <row r="778" ht="18.75" customHeight="1"/>
+    <row r="779" ht="18.75" customHeight="1"/>
+    <row r="780" ht="18.75" customHeight="1"/>
+    <row r="781" ht="18.75" customHeight="1"/>
+    <row r="782" ht="18.75" customHeight="1"/>
+    <row r="783" ht="18.75" customHeight="1"/>
+    <row r="784" ht="18.75" customHeight="1"/>
+    <row r="785" ht="18.75" customHeight="1"/>
+    <row r="786" ht="18.75" customHeight="1"/>
+    <row r="787" ht="18.75" customHeight="1"/>
+    <row r="788" ht="18.75" customHeight="1"/>
+    <row r="789" ht="18.75" customHeight="1"/>
+    <row r="790" ht="18.75" customHeight="1"/>
+    <row r="791" ht="18.75" customHeight="1"/>
+    <row r="792" ht="18.75" customHeight="1"/>
+    <row r="793" ht="18.75" customHeight="1"/>
+    <row r="794" ht="18.75" customHeight="1"/>
+    <row r="795" ht="18.75" customHeight="1"/>
+    <row r="796" ht="18.75" customHeight="1"/>
+    <row r="797" ht="18.75" customHeight="1"/>
+    <row r="798" ht="18.75" customHeight="1"/>
+    <row r="799" ht="18.75" customHeight="1"/>
+    <row r="800" ht="18.75" customHeight="1"/>
+    <row r="801" ht="18.75" customHeight="1"/>
+    <row r="802" ht="18.75" customHeight="1"/>
+    <row r="803" ht="18.75" customHeight="1"/>
+    <row r="804" ht="18.75" customHeight="1"/>
+    <row r="805" ht="18.75" customHeight="1"/>
+    <row r="806" ht="18.75" customHeight="1"/>
+    <row r="807" ht="18.75" customHeight="1"/>
+    <row r="808" ht="18.75" customHeight="1"/>
+    <row r="809" ht="18.75" customHeight="1"/>
+    <row r="810" ht="18.75" customHeight="1"/>
+    <row r="811" ht="18.75" customHeight="1"/>
+    <row r="812" ht="18.75" customHeight="1"/>
+    <row r="813" ht="18.75" customHeight="1"/>
+    <row r="814" ht="18.75" customHeight="1"/>
+    <row r="815" ht="18.75" customHeight="1"/>
+    <row r="816" ht="18.75" customHeight="1"/>
+    <row r="817" ht="18.75" customHeight="1"/>
+    <row r="818" ht="18.75" customHeight="1"/>
+    <row r="819" ht="18.75" customHeight="1"/>
+    <row r="820" ht="18.75" customHeight="1"/>
+    <row r="821" ht="18.75" customHeight="1"/>
+    <row r="822" ht="18.75" customHeight="1"/>
+    <row r="823" ht="18.75" customHeight="1"/>
+    <row r="824" ht="18.75" customHeight="1"/>
+    <row r="825" ht="18.75" customHeight="1"/>
+    <row r="826" ht="18.75" customHeight="1"/>
+    <row r="827" ht="18.75" customHeight="1"/>
+    <row r="828" ht="18.75" customHeight="1"/>
+    <row r="829" ht="18.75" customHeight="1"/>
+    <row r="830" ht="18.75" customHeight="1"/>
+    <row r="831" ht="18.75" customHeight="1"/>
+    <row r="832" ht="18.75" customHeight="1"/>
+    <row r="833" ht="18.75" customHeight="1"/>
+    <row r="834" ht="18.75" customHeight="1"/>
+    <row r="835" ht="18.75" customHeight="1"/>
+    <row r="836" ht="18.75" customHeight="1"/>
+    <row r="837" ht="18.75" customHeight="1"/>
+    <row r="838" ht="18.75" customHeight="1"/>
+    <row r="839" ht="18.75" customHeight="1"/>
+    <row r="840" ht="18.75" customHeight="1"/>
+    <row r="841" ht="18.75" customHeight="1"/>
+    <row r="842" ht="18.75" customHeight="1"/>
+    <row r="843" ht="18.75" customHeight="1"/>
+    <row r="844" ht="18.75" customHeight="1"/>
+    <row r="845" ht="18.75" customHeight="1"/>
+    <row r="846" ht="18.75" customHeight="1"/>
+    <row r="847" ht="18.75" customHeight="1"/>
+    <row r="848" ht="18.75" customHeight="1"/>
+    <row r="849" ht="18.75" customHeight="1"/>
+    <row r="850" ht="18.75" customHeight="1"/>
+    <row r="851" ht="18.75" customHeight="1"/>
+    <row r="852" ht="18.75" customHeight="1"/>
+    <row r="853" ht="18.75" customHeight="1"/>
+    <row r="854" ht="18.75" customHeight="1"/>
+    <row r="855" ht="18.75" customHeight="1"/>
+    <row r="856" ht="18.75" customHeight="1"/>
+    <row r="857" ht="18.75" customHeight="1"/>
+    <row r="858" ht="18.75" customHeight="1"/>
+    <row r="859" ht="18.75" customHeight="1"/>
+    <row r="860" ht="18.75" customHeight="1"/>
+    <row r="861" ht="18.75" customHeight="1"/>
+    <row r="862" ht="18.75" customHeight="1"/>
+    <row r="863" ht="18.75" customHeight="1"/>
+    <row r="864" ht="18.75" customHeight="1"/>
+    <row r="865" ht="18.75" customHeight="1"/>
+    <row r="866" ht="18.75" customHeight="1"/>
+    <row r="867" ht="18.75" customHeight="1"/>
+    <row r="868" ht="18.75" customHeight="1"/>
+    <row r="869" ht="18.75" customHeight="1"/>
+    <row r="870" ht="18.75" customHeight="1"/>
+    <row r="871" ht="18.75" customHeight="1"/>
+    <row r="872" ht="18.75" customHeight="1"/>
+    <row r="873" ht="18.75" customHeight="1"/>
+    <row r="874" ht="18.75" customHeight="1"/>
+    <row r="875" ht="18.75" customHeight="1"/>
+    <row r="876" ht="18.75" customHeight="1"/>
+    <row r="877" ht="18.75" customHeight="1"/>
+    <row r="878" ht="18.75" customHeight="1"/>
+    <row r="879" ht="18.75" customHeight="1"/>
+    <row r="880" ht="18.75" customHeight="1"/>
+    <row r="881" ht="18.75" customHeight="1"/>
+    <row r="882" ht="18.75" customHeight="1"/>
+    <row r="883" ht="18.75" customHeight="1"/>
+    <row r="884" ht="18.75" customHeight="1"/>
+    <row r="885" ht="18.75" customHeight="1"/>
+    <row r="886" ht="18.75" customHeight="1"/>
+    <row r="887" ht="18.75" customHeight="1"/>
+    <row r="888" ht="18.75" customHeight="1"/>
+    <row r="889" ht="18.75" customHeight="1"/>
+    <row r="890" ht="18.75" customHeight="1"/>
+    <row r="891" ht="18.75" customHeight="1"/>
+    <row r="892" ht="18.75" customHeight="1"/>
+    <row r="893" ht="18.75" customHeight="1"/>
+    <row r="894" ht="18.75" customHeight="1"/>
+    <row r="895" ht="18.75" customHeight="1"/>
+    <row r="896" ht="18.75" customHeight="1"/>
+    <row r="897" ht="18.75" customHeight="1"/>
+    <row r="898" ht="18.75" customHeight="1"/>
+    <row r="899" ht="18.75" customHeight="1"/>
+    <row r="900" ht="18.75" customHeight="1"/>
+    <row r="901" ht="18.75" customHeight="1"/>
+    <row r="902" ht="18.75" customHeight="1"/>
+    <row r="903" ht="18.75" customHeight="1"/>
+    <row r="904" ht="18.75" customHeight="1"/>
+    <row r="905" ht="18.75" customHeight="1"/>
+    <row r="906" ht="18.75" customHeight="1"/>
+    <row r="907" ht="18.75" customHeight="1"/>
+    <row r="908" ht="18.75" customHeight="1"/>
+    <row r="909" ht="18.75" customHeight="1"/>
+    <row r="910" ht="18.75" customHeight="1"/>
+    <row r="911" ht="18.75" customHeight="1"/>
+    <row r="912" ht="18.75" customHeight="1"/>
+    <row r="913" ht="18.75" customHeight="1"/>
+    <row r="914" ht="18.75" customHeight="1"/>
+    <row r="915" ht="18.75" customHeight="1"/>
+    <row r="916" ht="18.75" customHeight="1"/>
+    <row r="917" ht="18.75" customHeight="1"/>
+    <row r="918" ht="18.75" customHeight="1"/>
+    <row r="919" ht="18.75" customHeight="1"/>
+    <row r="920" ht="18.75" customHeight="1"/>
+    <row r="921" ht="18.75" customHeight="1"/>
+    <row r="922" ht="18.75" customHeight="1"/>
+    <row r="923" ht="18.75" customHeight="1"/>
+    <row r="924" ht="18.75" customHeight="1"/>
+    <row r="925" ht="18.75" customHeight="1"/>
+    <row r="926" ht="18.75" customHeight="1"/>
+    <row r="927" ht="18.75" customHeight="1"/>
+    <row r="928" ht="18.75" customHeight="1"/>
+    <row r="929" ht="18.75" customHeight="1"/>
+    <row r="930" ht="18.75" customHeight="1"/>
+    <row r="931" ht="18.75" customHeight="1"/>
+    <row r="932" ht="18.75" customHeight="1"/>
+    <row r="933" ht="18.75" customHeight="1"/>
+    <row r="934" ht="18.75" customHeight="1"/>
+    <row r="935" ht="18.75" customHeight="1"/>
+    <row r="936" ht="18.75" customHeight="1"/>
+    <row r="937" ht="18.75" customHeight="1"/>
+    <row r="938" ht="18.75" customHeight="1"/>
+    <row r="939" ht="18.75" customHeight="1"/>
+    <row r="940" ht="18.75" customHeight="1"/>
+    <row r="941" ht="18.75" customHeight="1"/>
+    <row r="942" ht="18.75" customHeight="1"/>
+    <row r="943" ht="18.75" customHeight="1"/>
+    <row r="944" ht="18.75" customHeight="1"/>
+    <row r="945" ht="18.75" customHeight="1"/>
+    <row r="946" ht="18.75" customHeight="1"/>
+    <row r="947" ht="18.75" customHeight="1"/>
+    <row r="948" ht="18.75" customHeight="1"/>
+    <row r="949" ht="18.75" customHeight="1"/>
+    <row r="950" ht="18.75" customHeight="1"/>
+    <row r="951" ht="18.75" customHeight="1"/>
+    <row r="952" ht="18.75" customHeight="1"/>
+    <row r="953" ht="18.75" customHeight="1"/>
+    <row r="954" ht="18.75" customHeight="1"/>
+    <row r="955" ht="18.75" customHeight="1"/>
+    <row r="956" ht="18.75" customHeight="1"/>
+    <row r="957" ht="18.75" customHeight="1"/>
+    <row r="958" ht="18.75" customHeight="1"/>
+    <row r="959" ht="18.75" customHeight="1"/>
+    <row r="960" ht="18.75" customHeight="1"/>
+    <row r="961" ht="18.75" customHeight="1"/>
+    <row r="962" ht="18.75" customHeight="1"/>
+    <row r="963" ht="18.75" customHeight="1"/>
+    <row r="964" ht="18.75" customHeight="1"/>
+    <row r="965" ht="18.75" customHeight="1"/>
+    <row r="966" ht="18.75" customHeight="1"/>
+    <row r="967" ht="18.75" customHeight="1"/>
+    <row r="968" ht="18.75" customHeight="1"/>
+    <row r="969" ht="18.75" customHeight="1"/>
+    <row r="970" ht="18.75" customHeight="1"/>
+    <row r="971" ht="18.75" customHeight="1"/>
+    <row r="972" ht="18.75" customHeight="1"/>
+    <row r="973" ht="18.75" customHeight="1"/>
+    <row r="974" ht="18.75" customHeight="1"/>
+    <row r="975" ht="18.75" customHeight="1"/>
+    <row r="976" ht="18.75" customHeight="1"/>
+    <row r="977" ht="18.75" customHeight="1"/>
+    <row r="978" ht="18.75" customHeight="1"/>
+    <row r="979" ht="18.75" customHeight="1"/>
+    <row r="980" ht="18.75" customHeight="1"/>
+    <row r="981" ht="18.75" customHeight="1"/>
+    <row r="982" ht="18.75" customHeight="1"/>
+    <row r="983" ht="18.75" customHeight="1"/>
+    <row r="984" ht="18.75" customHeight="1"/>
+    <row r="985" ht="18.75" customHeight="1"/>
+    <row r="986" ht="18.75" customHeight="1"/>
+    <row r="987" ht="18.75" customHeight="1"/>
+    <row r="988" ht="18.75" customHeight="1"/>
+    <row r="989" ht="18.75" customHeight="1"/>
+    <row r="990" ht="18.75" customHeight="1"/>
+    <row r="991" ht="18.75" customHeight="1"/>
+    <row r="992" ht="18.75" customHeight="1"/>
+    <row r="993" ht="18.75" customHeight="1"/>
+    <row r="994" ht="18.75" customHeight="1"/>
+    <row r="995" ht="18.75" customHeight="1"/>
+    <row r="996" ht="18.75" customHeight="1"/>
+    <row r="997" ht="18.75" customHeight="1"/>
+    <row r="998" ht="18.75" customHeight="1"/>
+    <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
+    <row r="1002" ht="18.75" customHeight="1"/>
+    <row r="1003" ht="18.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yuki"/>
+  <fileSharing readOnlyRecommended="0" userName="yukieiji"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695468352" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695468352" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695468352" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695468352"/>
+      <pm:revision xmlns:pm="smNativeData" day="1705144673" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1705144673" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1705144673" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1705144673"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
   <si>
     <t>English</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>ジュラシック風</t>
+  </si>
+  <si>
+    <t>jiyatsukaruaki</t>
+  </si>
+  <si>
+    <t>ジャッカルあき</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468352" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -471,7 +477,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468352" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -487,7 +493,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468352" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -501,7 +507,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695468352" fgClr="24292F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" fgClr="24292F" ulstyle="none" kern="1">
             <pm:latin face="Ui-monospace" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -534,7 +540,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695468352"/>
+          <pm:border xmlns:pm="smNativeData" id="1705144673"/>
         </ext>
       </extLst>
     </border>
@@ -542,15 +548,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +564,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695468352" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1705144673" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1695468352" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1705144673" count="1">
         <pm:color name="色 24" rgb="24292F"/>
       </pm:colors>
     </ext>
@@ -828,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:Q1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.631148" defaultRowHeight="15" customHeight="1"/>
@@ -1258,26 +1263,26 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1406,21 +1411,21 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A57" s="5" t="s">
+      <c r="A57" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5" t="s">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1428,37 +1433,37 @@
       <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5" t="s">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A59" s="5" t="s">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5" t="s">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1545,111 +1550,129 @@
     </row>
     <row r="70" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="76" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="77" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="78" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="79" spans="1:1" ht="18.75" customHeight="1"/>
@@ -2581,7 +2604,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695468352" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1705144673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2590,16 +2613,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695468352" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695468352" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695468352" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695468352" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1705144673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1705144673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1705144673" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1705144673" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695468352" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705144673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1705144673" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1705144673" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1705144673" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1705144673"/>
+      <pm:revision xmlns:pm="smNativeData" day="1706102100" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1706102100" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1706102100" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1706102100"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>English</t>
   </si>
@@ -437,6 +437,39 @@
   </si>
   <si>
     <t>ジャッカルあき</t>
+  </si>
+  <si>
+    <t>TimeMaster</t>
+  </si>
+  <si>
+    <t>Time Master</t>
+  </si>
+  <si>
+    <t>タイムマスター</t>
+  </si>
+  <si>
+    <t>starry_sky</t>
+  </si>
+  <si>
+    <t>starry sky</t>
+  </si>
+  <si>
+    <t>星空</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ラブ</t>
+  </si>
+  <si>
+    <t>Fish_facing_each_other</t>
+  </si>
+  <si>
+    <t>Fish facing each other</t>
+  </si>
+  <si>
+    <t>向き合う魚</t>
   </si>
 </sst>
 </file>
@@ -462,7 +495,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -477,7 +510,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -493,7 +526,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -507,7 +540,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1705144673" fgClr="24292F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" fgClr="24292F" ulstyle="none" kern="1">
             <pm:latin face="Ui-monospace" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -540,7 +573,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1705144673"/>
+          <pm:border xmlns:pm="smNativeData" id="1706102100"/>
         </ext>
       </extLst>
     </border>
@@ -564,10 +597,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1705144673" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1706102100" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1705144673" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1706102100" count="1">
         <pm:color name="色 24" rgb="24292F"/>
       </pm:colors>
     </ext>
@@ -834,7 +867,7 @@
   <dimension ref="A1:Q1003"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="A78" sqref="A78:M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.631148" defaultRowHeight="15" customHeight="1"/>
@@ -1655,29 +1688,109 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="78" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="79" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="80" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="81" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="78" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="82" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="83" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="84" spans="1:1" ht="18.75" customHeight="1"/>
@@ -2604,7 +2717,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1705144673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1706102100" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2613,16 +2726,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1705144673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1705144673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1705144673" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1705144673" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1706102100" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1706102100" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706102100" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1706102100" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1705144673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706102100" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/NamePlateTransData.xlsx
+++ b/NamePlateTransData.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1706102100" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1706102100" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1706102100" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1706102100"/>
+      <pm:revision xmlns:pm="smNativeData" day="1722783948" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1722783948" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1722783948" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1722783948"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
   <si>
     <t>English</t>
   </si>
@@ -470,6 +470,21 @@
   </si>
   <si>
     <t>向き合う魚</t>
+  </si>
+  <si>
+    <t>guesser</t>
+  </si>
+  <si>
+    <t>ゲッサー</t>
+  </si>
+  <si>
+    <t>cotton_candy</t>
+  </si>
+  <si>
+    <t>cotton candy</t>
+  </si>
+  <si>
+    <t>コットンキャンディー</t>
   </si>
 </sst>
 </file>
@@ -495,7 +510,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722783948" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -510,7 +525,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722783948" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -526,7 +541,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722783948" ulstyle="none" kern="1">
             <pm:latin face="游ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -540,7 +555,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1706102100" fgClr="24292F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722783948" fgClr="24292F" ulstyle="none" kern="1">
             <pm:latin face="Ui-monospace" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -573,7 +588,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1706102100"/>
+          <pm:border xmlns:pm="smNativeData" id="1722783948"/>
         </ext>
       </extLst>
     </border>
@@ -597,10 +612,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1706102100" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1722783948" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1706102100" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1722783948" count="1">
         <pm:color name="色 24" rgb="24292F"/>
       </pm:colors>
     </ext>
@@ -867,7 +882,7 @@
   <dimension ref="A1:Q1003"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:M81"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.631148" defaultRowHeight="15" customHeight="1"/>
@@ -1447,17 +1462,6 @@
       <c r="A57" t="s">
         <v>105</v>
       </c>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
       <c r="M57" t="s">
         <v>106</v>
       </c>
@@ -1466,17 +1470,6 @@
       <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
       <c r="M58" t="s">
         <v>107</v>
       </c>
@@ -1485,17 +1478,6 @@
       <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
       <c r="M59" t="s">
         <v>109</v>
       </c>
@@ -1791,8 +1773,48 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75" customHeight="1"/>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1"/>
+    <row r="82" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="84" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="85" spans="1:1" ht="18.75" customHeight="1"/>
     <row r="86" spans="1:1" ht="18.75" customHeight="1"/>
@@ -2717,7 +2739,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1706102100" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722783948" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2726,16 +2748,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1706102100" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1706102100" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706102100" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1706102100" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722783948" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722783948" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722783948" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722783948" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1706102100" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722783948" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
